--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/20_Burdur_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/20_Burdur_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D55683E-1B6C-44F6-9435-80A8EB443807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB3D7693-153D-4B99-8202-A05F49814126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{EC70E804-09B7-4D13-AD87-31E175829D82}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{37C90A64-F9CD-4D1A-869E-8BA93B62194E}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{A764B3FA-724A-4DBF-8342-763F735A7463}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{085975C7-8EBA-4048-81C6-4B15AF122425}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{BA2669D5-37D1-4493-9EA8-DBC30107EE38}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{78CD777F-74E8-44FE-82BB-0C0826DD9308}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{87122BF1-FF83-40FE-ABB0-4C118C9F6DF9}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{41696689-C10B-4170-A325-F499D319028B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{F21E21C7-1903-43C0-B6C7-E426A62B65A5}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3B5BDB92-7A6F-4923-9FB5-A01D2DF8ABF9}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{B4F8CA8A-6843-4321-8D6B-19A75CB60648}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{D519F6D3-267D-46BD-941E-12CE002A8B33}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{D4C076EC-BF4A-4CA0-9A00-0D906B14DB38}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{661054B4-8A2A-40B6-A268-F0CB2EE6CEBE}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{24448CCC-37BE-4116-9BF8-99EDE74C8E7F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{23850865-CBC9-4876-A89D-541571F42F48}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6131939F-3F43-423B-AFA5-20A6CADA3E35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DD4DCE-1BB1-4198-934D-87B7C2C06AA5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2426,7 +2426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E159BE-C501-4553-94AE-6454F38D1F76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3156DA-1152-49E0-A0F0-10ED22902561}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3679,7 +3679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21788A35-398C-4942-9F85-EB938B65F887}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D09BC5-9A6E-44C0-B20A-21FF222C83CC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4948,7 +4948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343D850F-D6D6-4B14-8146-8A1AEA76C487}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2757471-C0BF-4151-B405-686FE217A90B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6217,7 +6217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA8B26B-71B7-4E69-B08D-6BD05FF6ECF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A549F4-104E-4130-B31C-AA720447B4EA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7464,7 +7464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6874AFE0-4A61-4D73-89A8-5C9725E68037}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD999F4-B6C1-4E75-98DC-A1C4E1355A3C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
